--- a/biology/Botanique/Sainte_Vérote/Sainte_Vérote.xlsx
+++ b/biology/Botanique/Sainte_Vérote/Sainte_Vérote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sainte_V%C3%A9rote</t>
+          <t>Sainte_Vérote</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sainte Vérote est une représentation locale de la Vierge Marie, en tant que protectrice des vignerons à Noyers-sur-Serein, une ville de l'Yonne d'ancienne tradition viticole. Elle doit son nom au « vérot », qui désigne une grappe de raisin vert. La statue de Sainte Vérote surmontant la porte de Tonnerre, au bout de la rue Franche est appelée la « Vierge au raisin ».
-Chaque année, à l'occasion de la fête de l'assomption, le 15 août, a lieu une procession au cours de laquelle un vérot posé sur un coussin et un pressoir à vin sont transportés jusqu'à l'effigie de la Vierge au raisin[1].
+Chaque année, à l'occasion de la fête de l'assomption, le 15 août, a lieu une procession au cours de laquelle un vérot posé sur un coussin et un pressoir à vin sont transportés jusqu'à l'effigie de la Vierge au raisin.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sainte_V%C3%A9rote</t>
+          <t>Sainte_Vérote</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Francine Bonardot, « La vallée du Serein de secret en secret », Revue Pays de Bourgogne n° 188, 2000 (consulté le 6 mars 2011), p. 28-34
